--- a/BAJAe2021_ESP32/时速计算表.xlsx
+++ b/BAJAe2021_ESP32/时速计算表.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tibx\Documents\GitHub\BAJAe2021\BAJAe2021_ESP32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1001BE27-B058-49DA-B11C-D2A5A003F302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA91350-7D22-4F15-8ACC-EFC0471B4A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="3192" windowWidth="10632" windowHeight="12120" xr2:uid="{E9D9D483-EE91-4BF5-A613-02FFBE45185F}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="30960" windowHeight="14220" xr2:uid="{E9D9D483-EE91-4BF5-A613-02FFBE45185F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -440,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202934A8-00B8-4333-8F3C-A7445794EE01}">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -451,7 +461,7 @@
     <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -461,8 +471,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>1764.13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -473,7 +486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D3">
         <f>175.5/100</f>
         <v>1.7549999999999999</v>
@@ -482,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -496,7 +509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -508,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D7">
         <f>D6/D3</f>
         <v>1709.4017094017095</v>
@@ -517,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D8">
         <f>D7*60</f>
         <v>102564.10256410256</v>
@@ -526,7 +539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
@@ -541,7 +554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>20</v>
       </c>
@@ -556,7 +569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>

--- a/BAJAe2021_ESP32/时速计算表.xlsx
+++ b/BAJAe2021_ESP32/时速计算表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24515"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tibx\Documents\GitHub\BAJAe2021\BAJAe2021_ESP32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA91350-7D22-4F15-8ACC-EFC0471B4A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF7B871-525B-4D34-9959-BA04A671C156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="30960" windowHeight="14220" xr2:uid="{E9D9D483-EE91-4BF5-A613-02FFBE45185F}"/>
+    <workbookView xWindow="21000" yWindow="2340" windowWidth="22380" windowHeight="14220" xr2:uid="{E9D9D483-EE91-4BF5-A613-02FFBE45185F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>1小时跑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,53 @@
   </si>
   <si>
     <t>ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kph</t>
+  </si>
+  <si>
+    <t>m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换算系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>millis间隔时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rev per sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须为int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +151,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -132,8 +187,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202934A8-00B8-4333-8F3C-A7445794EE01}">
-  <dimension ref="B1:F11"/>
+  <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -461,7 +519,7 @@
     <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -471,11 +529,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1">
-        <v>1764.13</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -486,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D3">
         <f>175.5/100</f>
         <v>1.7549999999999999</v>
@@ -495,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -509,7 +564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -521,7 +576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D7">
         <f>D6/D3</f>
         <v>1709.4017094017095</v>
@@ -530,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D8">
         <f>D7*60</f>
         <v>102564.10256410256</v>
@@ -539,7 +594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
@@ -554,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>20</v>
       </c>
@@ -569,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -582,6 +637,139 @@
       </c>
       <c r="E11" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1764.13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>3750</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>C13/1000</f>
+        <v>1.7641300000000002</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>C15/3.6</f>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>C16/C14</f>
+        <v>7.8729395729843539</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <f>G13/60</f>
+        <v>62.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>1000/C17</f>
+        <v>127.01736000000001</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <f>1000/G17</f>
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <f>C19*C15</f>
+        <v>6350.8680000000004</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <f>G13*G19</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <f>C19/C21*C15</f>
+        <v>31.754340000000003</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <f>G23/G21</f>
+        <v>4000</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
